--- a/Analysis/Baseline_data_d1_exclusive.xlsx
+++ b/Analysis/Baseline_data_d1_exclusive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavosplmoura/Library/Mobile Documents/com~apple~CloudDocs/Medicina/Biblioteca/Research/Data Science/Data Science/PROJECTS/DVEP/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AF736B-8999-6846-8FB2-9E63BE117550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB6A2D-1B85-0D4B-AFAD-2F75ED747C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="500" windowWidth="39060" windowHeight="28300" activeTab="2" xr2:uid="{704BFAC6-42D9-C841-B8C7-75AA64A2EC45}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" activeTab="1" xr2:uid="{704BFAC6-42D9-C841-B8C7-75AA64A2EC45}"/>
   </bookViews>
   <sheets>
     <sheet name="data_d1_exclusive" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">data_d1_exclusive!$A$1:$Q$76</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -751,9 +751,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -767,13 +766,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1297,3977 +1296,3977 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="1" t="s">
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="1" t="s">
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="1" t="s">
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="1" t="s">
+      <c r="M20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" s="1" t="s">
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" s="1" t="s">
+      <c r="M22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="1" t="s">
+      <c r="M23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="1" t="s">
+      <c r="M24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q25" s="1" t="s">
+      <c r="M25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26" s="1" t="s">
+      <c r="M26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="1" t="s">
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" t="s">
         <v>41</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q28" s="1" t="s">
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" t="s">
         <v>41</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q29" s="1" t="s">
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" t="s">
         <v>26</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" t="s">
         <v>28</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q30" s="1" t="s">
+      <c r="M30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" t="s">
         <v>64</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q31" s="1" t="s">
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" t="s">
         <v>41</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q32" s="1" t="s">
+      <c r="M32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>33</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" t="s">
         <v>26</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" t="s">
         <v>111</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q33" s="1" t="s">
+      <c r="M33" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>34</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" t="s">
         <v>64</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" t="s">
         <v>40</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" t="s">
         <v>107</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q34" s="1" t="s">
+      <c r="M34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" t="s">
         <v>107</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q35" s="1" t="s">
+      <c r="M35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" t="s">
         <v>24</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>58</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" t="s">
         <v>34</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" t="s">
         <v>28</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q36" s="1" t="s">
+      <c r="M36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" t="s">
         <v>26</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" t="s">
         <v>45</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" t="s">
         <v>41</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q37" s="1" t="s">
+      <c r="M37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>55</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" t="s">
         <v>64</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" t="s">
         <v>45</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" t="s">
         <v>28</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q38" s="1" t="s">
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" t="s">
         <v>78</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>67</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" t="s">
         <v>49</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" t="s">
         <v>27</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" t="s">
         <v>41</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q39" s="1" t="s">
+      <c r="M39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" t="s">
         <v>26</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" t="s">
         <v>34</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" t="s">
         <v>41</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q40" s="1" t="s">
+      <c r="M40" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>39</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" t="s">
         <v>26</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" t="s">
         <v>41</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q41" s="1" t="s">
+      <c r="M41" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>72</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" t="s">
         <v>64</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" t="s">
         <v>27</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" t="s">
         <v>41</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q42" s="1" t="s">
+      <c r="M42" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>73</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" t="s">
         <v>45</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" t="s">
         <v>41</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q43" s="1" t="s">
+      <c r="M43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>106</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>121</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>67</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" t="s">
         <v>26</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" t="s">
         <v>41</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q44" s="1" t="s">
+      <c r="M44" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" t="s">
         <v>24</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>58</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" t="s">
         <v>26</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" t="s">
         <v>45</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" t="s">
         <v>28</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q45" s="1" t="s">
+      <c r="M45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" t="s">
+        <v>17</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" t="s">
         <v>24</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>73</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" t="s">
         <v>34</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" t="s">
         <v>41</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q46" s="1" t="s">
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>115</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s">
         <v>44</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>33</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" t="s">
         <v>64</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" t="s">
         <v>41</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q47" s="1" t="s">
+      <c r="M47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" t="s">
+        <v>17</v>
+      </c>
+      <c r="O47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>121</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s">
         <v>44</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" t="s">
         <v>24</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" t="s">
         <v>49</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K48" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" t="s">
         <v>41</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q48" s="1" t="s">
+      <c r="M48" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>96</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" t="s">
         <v>44</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s">
         <v>70</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>33</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" t="s">
         <v>26</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" t="s">
         <v>27</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" t="s">
         <v>41</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q49" s="1" t="s">
+      <c r="M49" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>121</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>70</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>58</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" t="s">
         <v>26</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K50" t="s">
         <v>34</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" t="s">
         <v>111</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q50" s="1" t="s">
+      <c r="M50" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q50" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" t="s">
         <v>44</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" t="s">
         <v>78</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>73</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" t="s">
         <v>26</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="K51" t="s">
         <v>34</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L51" t="s">
         <v>41</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q51" s="1" t="s">
+      <c r="M51" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" t="s">
         <v>44</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" t="s">
         <v>24</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" t="s">
         <v>64</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K52" t="s">
         <v>40</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" t="s">
         <v>107</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q52" s="1" t="s">
+      <c r="M52" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" t="s">
         <v>44</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" t="s">
         <v>24</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" t="s">
         <v>49</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K53" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" t="s">
         <v>41</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q53" s="1" t="s">
+      <c r="M53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q53" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>63</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" t="s">
         <v>44</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" t="s">
         <v>24</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" t="s">
         <v>33</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" t="s">
         <v>49</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" t="s">
         <v>40</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" t="s">
         <v>131</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q54" s="1" t="s">
+      <c r="M54" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" t="s">
         <v>23</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" t="s">
         <v>48</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" t="s">
         <v>81</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" t="s">
         <v>26</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K55" t="s">
         <v>27</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" t="s">
         <v>111</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q55" s="1" t="s">
+      <c r="M55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" t="s">
+        <v>17</v>
+      </c>
+      <c r="O55" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>75</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" t="s">
         <v>44</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" t="s">
         <v>24</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" t="s">
         <v>40</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K56" t="s">
         <v>50</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L56" t="s">
         <v>107</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q56" s="1" t="s">
+      <c r="M56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P56" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q56" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>63</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" t="s">
         <v>78</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" t="s">
         <v>33</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" t="s">
         <v>26</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K57" t="s">
         <v>34</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" t="s">
         <v>41</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q57" s="1" t="s">
+      <c r="M57" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" t="s">
+        <v>17</v>
+      </c>
+      <c r="P57" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>105</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" t="s">
         <v>44</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
         <v>32</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" t="s">
         <v>71</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" t="s">
         <v>49</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K58" t="s">
         <v>45</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L58" t="s">
         <v>28</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q58" s="1" t="s">
+      <c r="M58" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" t="s">
+        <v>29</v>
+      </c>
+      <c r="O58" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q58" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>59</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" t="s">
         <v>24</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" t="s">
         <v>73</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" t="s">
         <v>26</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K59" t="s">
         <v>45</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L59" t="s">
         <v>111</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q59" s="1" t="s">
+      <c r="M59" t="s">
+        <v>29</v>
+      </c>
+      <c r="N59" t="s">
+        <v>17</v>
+      </c>
+      <c r="O59" t="s">
+        <v>17</v>
+      </c>
+      <c r="P59" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>133</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" t="s">
         <v>44</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" t="s">
         <v>23</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" t="s">
         <v>33</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" t="s">
         <v>26</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K60" t="s">
         <v>40</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="L60" t="s">
         <v>41</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q60" s="1" t="s">
+      <c r="M60" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>31</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" t="s">
         <v>44</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" t="s">
         <v>32</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" t="s">
         <v>71</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" t="s">
         <v>58</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" t="s">
         <v>26</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L61" s="1" t="s">
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" t="s">
         <v>111</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q61" s="1" t="s">
+      <c r="M61" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" t="s">
+        <v>29</v>
+      </c>
+      <c r="O61" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" t="s">
         <v>44</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" t="s">
         <v>24</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" t="s">
         <v>33</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" t="s">
         <v>49</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K62" t="s">
         <v>34</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" t="s">
         <v>41</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q62" s="1" t="s">
+      <c r="M62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N62" t="s">
+        <v>17</v>
+      </c>
+      <c r="O62" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>117</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>96</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" t="s">
         <v>70</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" t="s">
         <v>24</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" t="s">
         <v>67</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" t="s">
         <v>49</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="K63" t="s">
         <v>40</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="L63" t="s">
         <v>28</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q63" s="1" t="s">
+      <c r="M63" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>138</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" t="s">
         <v>44</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" t="s">
         <v>32</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" t="s">
         <v>24</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" t="s">
         <v>33</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" t="s">
         <v>26</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" t="s">
         <v>34</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" t="s">
         <v>28</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q64" s="1" t="s">
+      <c r="M64" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" t="s">
+        <v>29</v>
+      </c>
+      <c r="O64" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q64" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>139</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>124</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" t="s">
         <v>22</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" t="s">
         <v>70</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" t="s">
         <v>24</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" t="s">
         <v>58</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" t="s">
         <v>26</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" t="s">
         <v>34</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L65" t="s">
         <v>28</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q65" s="1" t="s">
+      <c r="M65" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" t="s">
+        <v>29</v>
+      </c>
+      <c r="O65" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>86</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" t="s">
         <v>44</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" t="s">
         <v>32</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" t="s">
         <v>24</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" t="s">
         <v>33</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" t="s">
         <v>26</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K66" t="s">
         <v>27</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" t="s">
         <v>41</v>
       </c>
-      <c r="M66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q66" s="1" t="s">
+      <c r="M66" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q66" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>115</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" t="s">
         <v>32</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" t="s">
         <v>24</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" t="s">
         <v>72</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" t="s">
         <v>49</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="K67" t="s">
         <v>50</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L67" t="s">
         <v>41</v>
       </c>
-      <c r="M67" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q67" s="1" t="s">
+      <c r="M67" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" t="s">
+        <v>29</v>
+      </c>
+      <c r="O67" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q67" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>53</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" t="s">
         <v>44</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" t="s">
         <v>32</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" t="s">
         <v>71</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" t="s">
         <v>72</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" t="s">
         <v>26</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L68" s="1" t="s">
+      <c r="K68" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" t="s">
         <v>111</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q68" s="1" t="s">
+      <c r="M68" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O68" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>68</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" t="s">
         <v>44</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" t="s">
         <v>70</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" t="s">
         <v>143</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" t="s">
         <v>67</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" t="s">
         <v>26</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="K69" t="s">
         <v>40</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="L69" t="s">
         <v>41</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q69" s="1" t="s">
+      <c r="M69" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" t="s">
+        <v>29</v>
+      </c>
+      <c r="O69" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q69" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>98</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>104</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" t="s">
         <v>44</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" t="s">
         <v>23</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" t="s">
         <v>78</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" t="s">
         <v>73</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K70" t="s">
         <v>45</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="L70" t="s">
         <v>28</v>
       </c>
-      <c r="M70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q70" s="1" t="s">
+      <c r="M70" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" t="s">
+        <v>29</v>
+      </c>
+      <c r="O70" t="s">
+        <v>29</v>
+      </c>
+      <c r="P70" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>122</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>112</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>43</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" t="s">
         <v>70</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" t="s">
         <v>24</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" t="s">
         <v>73</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" t="s">
         <v>26</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K71" t="s">
         <v>45</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="L71" t="s">
         <v>41</v>
       </c>
-      <c r="M71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q71" s="1" t="s">
+      <c r="M71" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" t="s">
+        <v>29</v>
+      </c>
+      <c r="O71" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>146</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>100</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" t="s">
         <v>44</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" t="s">
         <v>70</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" t="s">
         <v>24</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" t="s">
         <v>33</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" t="s">
         <v>49</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K72" t="s">
         <v>34</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L72" t="s">
         <v>41</v>
       </c>
-      <c r="M72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q72" s="1" t="s">
+      <c r="M72" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" t="s">
+        <v>17</v>
+      </c>
+      <c r="P72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>148</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" t="s">
         <v>22</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" t="s">
         <v>23</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" t="s">
         <v>48</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" t="s">
         <v>33</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" t="s">
         <v>26</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K73" t="s">
         <v>45</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="L73" t="s">
         <v>41</v>
       </c>
-      <c r="M73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q73" s="1" t="s">
+      <c r="M73" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" t="s">
+        <v>29</v>
+      </c>
+      <c r="O73" t="s">
+        <v>29</v>
+      </c>
+      <c r="P73" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q73" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>89</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" t="s">
         <v>32</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" t="s">
         <v>48</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" t="s">
         <v>33</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" t="s">
         <v>49</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K74" t="s">
         <v>34</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="L74" t="s">
         <v>28</v>
       </c>
-      <c r="M74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q74" s="1" t="s">
+      <c r="M74" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" t="s">
+        <v>29</v>
+      </c>
+      <c r="O74" t="s">
+        <v>29</v>
+      </c>
+      <c r="P74" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q74" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>84</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" t="s">
         <v>44</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" t="s">
         <v>70</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" t="s">
         <v>24</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" t="s">
         <v>72</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" t="s">
         <v>26</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K75" t="s">
         <v>45</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L75" t="s">
         <v>111</v>
       </c>
-      <c r="M75" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q75" s="1" t="s">
+      <c r="M75" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" t="s">
+        <v>29</v>
+      </c>
+      <c r="O75" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q75" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>53</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>69</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" t="s">
         <v>44</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" t="s">
         <v>70</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" t="s">
         <v>24</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" t="s">
         <v>79</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" t="s">
         <v>26</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K76" t="s">
         <v>34</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" t="s">
         <v>28</v>
       </c>
-      <c r="M76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q76" s="1" t="s">
+      <c r="M76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" t="s">
+        <v>29</v>
+      </c>
+      <c r="O76" t="s">
+        <v>29</v>
+      </c>
+      <c r="P76" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q76" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5283,7 +5282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F0087-1006-CA47-A949-21AAD4381E95}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -5293,18 +5292,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C2" t="s">
@@ -5312,12 +5311,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>44</v>
       </c>
@@ -5329,7 +5328,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -5341,12 +5340,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>61</v>
       </c>
@@ -5358,7 +5357,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>199</v>
       </c>
@@ -5370,7 +5369,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -5382,12 +5381,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>78</v>
       </c>
@@ -5399,7 +5398,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -5411,7 +5410,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>71</v>
       </c>
@@ -5423,7 +5422,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>143</v>
       </c>
@@ -5435,7 +5434,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>48</v>
       </c>
@@ -5447,7 +5446,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>76</v>
       </c>
@@ -5459,12 +5458,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>64</v>
       </c>
@@ -5476,7 +5475,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -5488,7 +5487,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -5500,7 +5499,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C21" t="s">
@@ -5508,7 +5507,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C22" t="s">
@@ -5516,12 +5515,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>131</v>
       </c>
@@ -5577,7 +5576,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5615,7 +5614,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5642,7 +5641,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5669,7 +5668,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5696,7 +5695,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C44" t="s">
@@ -5704,7 +5703,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5772,906 +5771,906 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64749C1A-EEE3-0F46-A684-D20DD1E92FA4}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A39" zoomScale="139" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.59765625" customWidth="1"/>
     <col min="2" max="2" width="44.59765625" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11" style="2"/>
-    <col min="7" max="7" width="9.3984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.19921875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1"/>
+    <col min="7" max="7" width="9.3984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.19921875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
         <v>37</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>49</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0.56410000000000005</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="H5" s="3">
+      <c r="B5" s="1"/>
+      <c r="H5" s="2">
         <v>0.1908</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>30</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>81.099999999999994</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>35</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>92.1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>7.9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="H8" s="3">
+      <c r="B8" s="1"/>
+      <c r="H8" s="2">
         <v>0.4864</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>2.7</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>18</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>48.6</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>14</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>36.799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>24.3</v>
       </c>
-      <c r="E11" s="2">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="1">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1">
         <v>44.7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>9</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>24.3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>7</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="H13" s="3">
+      <c r="B13" s="1"/>
+      <c r="H13" s="2">
         <v>0.1227</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>7</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>5.3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>22</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>59.5</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>27</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>71.099999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>2.7</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>13.2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>2.7</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>13.5</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>4</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>10.5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>2.7</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="H20" s="3">
+      <c r="B20" s="1"/>
+      <c r="H20" s="2">
         <v>0.41599999999999998</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>5.4</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>6</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>15.8</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>27</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>73</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>25</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>65.8</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>8</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>21.6</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>7</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>0.74</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>0.46229999999999999</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>1.63</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>0.1085</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="6">
+      <c r="B26" s="1"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5">
         <v>1.01E-2</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>2.7</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="G27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>0</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>13.2</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="G28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>18</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>48.6</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>25</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>65.8</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="G29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>14</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>37.799999999999997</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>5</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>13.2</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="G30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>10.8</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>3</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>7.9</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="G31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="G32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="B32" s="1"/>
+      <c r="G32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>6</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>16.2</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>12</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>31.6</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="6">
         <v>1.66</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>0.1981</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="6" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>15</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>40.5</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>6</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>15.8</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="6">
         <v>4.54</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <v>3.32E-2</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="6" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>9</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>24.3</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>9</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>23.7</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>1</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>8</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>21.6</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>11</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>28.9</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>0.22</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>0.64280000000000004</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>1</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>2.7</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>7.9</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>0.61480000000000001</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+      <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="C42" s="8" t="s">
+      <c r="A42" s="3"/>
+      <c r="C42" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8" t="s">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F42" s="8"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="C43" s="5" t="s">
+      <c r="A43" s="3"/>
+      <c r="C43" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>37</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>49</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>38</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="G45" s="3">
+      <c r="B45" s="1"/>
+      <c r="G45" s="2">
         <v>0.18</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>0.67149999999999999</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>10</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>27</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>13</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>34.200000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>27</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>73</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>25</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>65.8</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="2">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="2">
         <v>0.26300000000000001</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F52" s="8"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>0.1125</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6679,17 +6678,17 @@
       <c r="B54" t="s">
         <v>201</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>1</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <f>ROUND((C54/23*100),1)</f>
         <v>4.3</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>0</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <f>ROUND((E54/23*100),1)</f>
         <v>0</v>
       </c>
@@ -6698,17 +6697,17 @@
       <c r="B55" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>0</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <f t="shared" ref="D55:D58" si="0">ROUND((C55/23*100),1)</f>
         <v>0</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>1</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <f t="shared" ref="F55:F58" si="1">ROUND((E55/23*100),1)</f>
         <v>4.3</v>
       </c>
@@ -6717,17 +6716,17 @@
       <c r="B56" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>0</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>3</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -6736,17 +6735,17 @@
       <c r="B57" t="s">
         <v>204</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>0</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>2</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
@@ -6755,17 +6754,17 @@
       <c r="B58" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>9</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <f t="shared" si="0"/>
         <v>39.1</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>7</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <f t="shared" si="1"/>
         <v>30.4</v>
       </c>

--- a/Analysis/Baseline_data_d1_exclusive.xlsx
+++ b/Analysis/Baseline_data_d1_exclusive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavosplmoura/Library/Mobile Documents/com~apple~CloudDocs/Medicina/Biblioteca/Research/Data Science/Data Science/PROJECTS/DVEP/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB6A2D-1B85-0D4B-AFAD-2F75ED747C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A024D2D-567F-554E-BF14-2D0F6DA5FB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" activeTab="1" xr2:uid="{704BFAC6-42D9-C841-B8C7-75AA64A2EC45}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" activeTab="2" xr2:uid="{704BFAC6-42D9-C841-B8C7-75AA64A2EC45}"/>
   </bookViews>
   <sheets>
     <sheet name="data_d1_exclusive" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="216">
   <si>
     <t>record_id</t>
   </si>
@@ -5282,12 +5282,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F0087-1006-CA47-A949-21AAD4381E95}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="2.796875" customWidth="1"/>
     <col min="2" max="2" width="40.3984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5769,18 +5770,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64749C1A-EEE3-0F46-A684-D20DD1E92FA4}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="139" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="139" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="44.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" customWidth="1"/>
+    <col min="2" max="2" width="42.3984375" customWidth="1"/>
     <col min="3" max="3" width="6.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1"/>
     <col min="7" max="7" width="9.3984375" style="2" customWidth="1"/>
@@ -5958,25 +5959,25 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="C10" s="1">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>48.6</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1">
-        <v>36.799999999999997</v>
+        <v>81.599999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
@@ -5985,82 +5986,82 @@
         <v>24.3</v>
       </c>
       <c r="E11" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1">
-        <v>44.7</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>24.3</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="A12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="H12" s="2">
+        <v>0.1227</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1">
         <v>7</v>
       </c>
-      <c r="F12" s="1">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="H13" s="2">
-        <v>0.1227</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>210</v>
+      <c r="D13" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
-        <v>18.899999999999999</v>
+        <v>59.5</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1">
-        <v>5.3</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>59.5</v>
+        <v>2.7</v>
       </c>
       <c r="E15" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1">
-        <v>71.099999999999994</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -6069,154 +6070,163 @@
         <v>2.7</v>
       </c>
       <c r="E16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>13.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>2.7</v>
+        <v>13.5</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>13.5</v>
+        <v>2.7</v>
       </c>
       <c r="E18" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
+      <c r="A19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="H19" s="2">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="H20" s="2">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>210</v>
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>15.8</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1">
-        <v>5.4</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1">
-        <v>15.8</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1">
-        <v>73</v>
+        <v>21.6</v>
       </c>
       <c r="E22" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F22" s="1">
-        <v>65.8</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1">
-        <v>21.6</v>
-      </c>
-      <c r="E23" s="1">
-        <v>7</v>
-      </c>
-      <c r="F23" s="1">
-        <v>18.399999999999999</v>
+      <c r="A23" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.46229999999999999</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G24" s="2">
-        <v>0.74</v>
+        <v>1.63</v>
       </c>
       <c r="H24" s="2">
-        <v>0.46229999999999999</v>
+        <v>0.1085</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>209</v>
@@ -6224,60 +6234,53 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1.63</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.1085</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>209</v>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5">
+        <v>1.01E-2</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="1"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="5">
-        <v>1.01E-2</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>210</v>
-      </c>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="G27" s="6"/>
       <c r="I27" s="6"/>
@@ -6285,19 +6288,19 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>48.6</v>
       </c>
       <c r="E28" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F28" s="1">
-        <v>13.2</v>
+        <v>65.8</v>
       </c>
       <c r="G28" s="6"/>
       <c r="I28" s="6"/>
@@ -6305,19 +6308,19 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1">
-        <v>48.6</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E29" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1">
-        <v>65.8</v>
+        <v>13.2</v>
       </c>
       <c r="G29" s="6"/>
       <c r="I29" s="6"/>
@@ -6325,73 +6328,80 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="C30" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1">
-        <v>37.799999999999997</v>
+        <v>10.8</v>
       </c>
       <c r="E30" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F30" s="1">
-        <v>13.2</v>
+        <v>7.9</v>
       </c>
       <c r="G30" s="6"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="1">
-        <v>4</v>
-      </c>
-      <c r="D31" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="E31" s="1">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1">
-        <v>7.9</v>
-      </c>
+      <c r="A31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="G31" s="6"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="G32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.1981</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C33" s="1">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="E33" s="1">
         <v>6</v>
       </c>
-      <c r="D33" s="1">
-        <v>16.2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>12</v>
-      </c>
       <c r="F33" s="1">
-        <v>31.6</v>
+        <v>15.8</v>
       </c>
       <c r="G33" s="6">
-        <v>1.66</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.1981</v>
+        <v>4.54</v>
+      </c>
+      <c r="H33" s="5">
+        <v>3.32E-2</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>211</v>
@@ -6400,113 +6410,89 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C34" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
-        <v>40.5</v>
+        <v>24.3</v>
       </c>
       <c r="E34" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1">
-        <v>15.8</v>
-      </c>
-      <c r="G34" s="6">
-        <v>4.54</v>
-      </c>
-      <c r="H34" s="5">
-        <v>3.32E-2</v>
-      </c>
-      <c r="I34" s="6" t="s">
+        <v>23.7</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="1">
-        <v>9</v>
-      </c>
-      <c r="D35" s="1">
-        <v>24.3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>9</v>
-      </c>
-      <c r="F35" s="1">
-        <v>23.7</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="A35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1">
+        <v>28.9</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C37" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>21.6</v>
+        <v>2.7</v>
       </c>
       <c r="E37" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1">
-        <v>28.9</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0.22</v>
+        <v>7.9</v>
       </c>
       <c r="H37" s="2">
-        <v>0.64280000000000004</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="E38" s="1">
-        <v>3</v>
-      </c>
-      <c r="F38" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0.61480000000000001</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
@@ -6516,205 +6502,221 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
+      <c r="C41" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-      <c r="C42" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F42" s="7"/>
+      <c r="C42" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="C43" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>161</v>
+      <c r="A43" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="1">
+        <v>37</v>
+      </c>
+      <c r="D43" s="1">
+        <v>49</v>
+      </c>
+      <c r="E43" s="1">
+        <v>38</v>
+      </c>
+      <c r="F43" s="1">
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C44" s="1">
-        <v>37</v>
-      </c>
-      <c r="D44" s="1">
-        <v>49</v>
-      </c>
-      <c r="E44" s="1">
-        <v>38</v>
-      </c>
-      <c r="F44" s="1">
-        <v>51</v>
+        <v>159</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="G44" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="G45" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0.67149999999999999</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>211</v>
+      <c r="A45" s="4"/>
+      <c r="B45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="1">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1">
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E46" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F46" s="1">
-        <v>34.200000000000003</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="1">
-        <v>27</v>
-      </c>
-      <c r="D47" s="1">
-        <v>73</v>
-      </c>
-      <c r="E47" s="1">
-        <v>25</v>
-      </c>
-      <c r="F47" s="1">
-        <v>65.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G47" s="2">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H47" s="2">
         <v>0.26300000000000001</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H53" s="2">
+      <c r="G52" s="2">
         <v>0.1125</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <f>ROUND((C53/23*100),1)</f>
+        <v>4.3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <f>ROUND((E53/23*100),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" ref="D54:D57" si="0">ROUND((C54/23*100),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="D54" s="1">
-        <f>ROUND((C54/23*100),1)</f>
+      <c r="F54" s="1">
+        <f t="shared" ref="F54:F57" si="1">ROUND((E54/23*100),1)</f>
         <v>4.3</v>
       </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <f>ROUND((E54/23*100),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" ref="D55:D58" si="0">ROUND((C55/23*100),1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" ref="F55:F58" si="1">ROUND((E55/23*100),1)</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -6724,63 +6726,44 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39.1</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="1"/>
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>205</v>
-      </c>
-      <c r="C58" s="1">
-        <v>9</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="0"/>
-        <v>39.1</v>
-      </c>
-      <c r="E58" s="1">
-        <v>7</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" si="1"/>
         <v>30.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:I1048576">
+  <conditionalFormatting sqref="H2:I51 H53:I1048576 G52:H52">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>

--- a/Analysis/Baseline_data_d1_exclusive.xlsx
+++ b/Analysis/Baseline_data_d1_exclusive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavosplmoura/Library/Mobile Documents/com~apple~CloudDocs/Medicina/Biblioteca/Research/Data Science/Data Science/PROJECTS/DVEP/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A024D2D-567F-554E-BF14-2D0F6DA5FB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D1145D-AA3D-A34A-9F67-4AF1B8F00B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" activeTab="2" xr2:uid="{704BFAC6-42D9-C841-B8C7-75AA64A2EC45}"/>
+    <workbookView xWindow="8320" yWindow="500" windowWidth="34560" windowHeight="20140" activeTab="2" xr2:uid="{704BFAC6-42D9-C841-B8C7-75AA64A2EC45}"/>
   </bookViews>
   <sheets>
     <sheet name="data_d1_exclusive" sheetId="2" r:id="rId1"/>
@@ -5282,7 +5282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F0087-1006-CA47-A949-21AAD4381E95}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:D50"/>
     </sheetView>
   </sheetViews>
@@ -5772,8 +5772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64749C1A-EEE3-0F46-A684-D20DD1E92FA4}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="139" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:H57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="119" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5783,7 +5783,7 @@
     <col min="3" max="3" width="6.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1"/>
+    <col min="6" max="6" width="8.796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.3984375" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.19921875" style="2" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" customWidth="1"/>
@@ -6763,7 +6763,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:I51 H53:I1048576 G52:H52">
+  <conditionalFormatting sqref="H2:I51 G52:H52 H53:I1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
